--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Unc5a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.35444722554997</v>
+        <v>1.385276</v>
       </c>
       <c r="H2">
-        <v>1.35444722554997</v>
+        <v>2.770552</v>
       </c>
       <c r="I2">
-        <v>0.04769787434912888</v>
+        <v>0.04677116301383227</v>
       </c>
       <c r="J2">
-        <v>0.04769787434912888</v>
+        <v>0.04064569413642475</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N2">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O2">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P2">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q2">
-        <v>1.237276193584365</v>
+        <v>1.326367830738</v>
       </c>
       <c r="R2">
-        <v>1.237276193584365</v>
+        <v>5.305471322952</v>
       </c>
       <c r="S2">
-        <v>0.005549978792402422</v>
+        <v>0.005361750173622634</v>
       </c>
       <c r="T2">
-        <v>0.005549978792402422</v>
+        <v>0.003639216076680318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.35444722554997</v>
+        <v>1.385276</v>
       </c>
       <c r="H3">
-        <v>1.35444722554997</v>
+        <v>2.770552</v>
       </c>
       <c r="I3">
-        <v>0.04769787434912888</v>
+        <v>0.04677116301383227</v>
       </c>
       <c r="J3">
-        <v>0.04769787434912888</v>
+        <v>0.04064569413642475</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N3">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O3">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P3">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q3">
-        <v>2.129014100390238</v>
+        <v>2.326465299265333</v>
       </c>
       <c r="R3">
-        <v>2.129014100390238</v>
+        <v>13.958791795592</v>
       </c>
       <c r="S3">
-        <v>0.009549996328354838</v>
+        <v>0.009404574985298278</v>
       </c>
       <c r="T3">
-        <v>0.009549996328354838</v>
+        <v>0.009574843858601197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.35444722554997</v>
+        <v>1.385276</v>
       </c>
       <c r="H4">
-        <v>1.35444722554997</v>
+        <v>2.770552</v>
       </c>
       <c r="I4">
-        <v>0.04769787434912888</v>
+        <v>0.04677116301383227</v>
       </c>
       <c r="J4">
-        <v>0.04769787434912888</v>
+        <v>0.04064569413642475</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N4">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O4">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P4">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q4">
-        <v>1.684497964921392</v>
+        <v>1.7455862876</v>
       </c>
       <c r="R4">
-        <v>1.684497964921392</v>
+        <v>10.4735177256</v>
       </c>
       <c r="S4">
-        <v>0.007556055818123437</v>
+        <v>0.007056411776365956</v>
       </c>
       <c r="T4">
-        <v>0.007556055818123437</v>
+        <v>0.007184167393669397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.35444722554997</v>
+        <v>1.385276</v>
       </c>
       <c r="H5">
-        <v>1.35444722554997</v>
+        <v>2.770552</v>
       </c>
       <c r="I5">
-        <v>0.04769787434912888</v>
+        <v>0.04677116301383227</v>
       </c>
       <c r="J5">
-        <v>0.04769787434912888</v>
+        <v>0.04064569413642475</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N5">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O5">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P5">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q5">
-        <v>1.106881369962299</v>
+        <v>1.266789187892</v>
       </c>
       <c r="R5">
-        <v>1.106881369962299</v>
+        <v>7.600735127351999</v>
       </c>
       <c r="S5">
-        <v>0.004965074217745561</v>
+        <v>0.005120907632646652</v>
       </c>
       <c r="T5">
-        <v>0.004965074217745561</v>
+        <v>0.005213621144343045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35444722554997</v>
+        <v>1.385276</v>
       </c>
       <c r="H6">
-        <v>1.35444722554997</v>
+        <v>2.770552</v>
       </c>
       <c r="I6">
-        <v>0.04769787434912888</v>
+        <v>0.04677116301383227</v>
       </c>
       <c r="J6">
-        <v>0.04769787434912888</v>
+        <v>0.04064569413642475</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N6">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O6">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P6">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q6">
-        <v>1.122303290485593</v>
+        <v>1.148928058777333</v>
       </c>
       <c r="R6">
-        <v>1.122303290485593</v>
+        <v>6.893568352664</v>
       </c>
       <c r="S6">
-        <v>0.00503425144130018</v>
+        <v>0.004644462173966983</v>
       </c>
       <c r="T6">
-        <v>0.00503425144130018</v>
+        <v>0.004728549689106755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.35444722554997</v>
+        <v>1.385276</v>
       </c>
       <c r="H7">
-        <v>1.35444722554997</v>
+        <v>2.770552</v>
       </c>
       <c r="I7">
-        <v>0.04769787434912888</v>
+        <v>0.04677116301383227</v>
       </c>
       <c r="J7">
-        <v>0.04769787434912888</v>
+        <v>0.04064569413642475</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N7">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O7">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P7">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q7">
-        <v>3.353481121515518</v>
+        <v>3.755922368492</v>
       </c>
       <c r="R7">
-        <v>3.353481121515518</v>
+        <v>15.023689473968</v>
       </c>
       <c r="S7">
-        <v>0.01504251775120244</v>
+        <v>0.01518305627193176</v>
       </c>
       <c r="T7">
-        <v>0.01504251775120244</v>
+        <v>0.01030529597402403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.8585905719084</v>
+        <v>6.261621000000001</v>
       </c>
       <c r="H8">
-        <v>5.8585905719084</v>
+        <v>18.784863</v>
       </c>
       <c r="I8">
-        <v>0.2063146586227537</v>
+        <v>0.2114115140389608</v>
       </c>
       <c r="J8">
-        <v>0.2063146586227537</v>
+        <v>0.2755854414184041</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N8">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O8">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P8">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q8">
-        <v>5.351773406776157</v>
+        <v>5.995348697785501</v>
       </c>
       <c r="R8">
-        <v>5.351773406776157</v>
+        <v>35.97209218671301</v>
       </c>
       <c r="S8">
-        <v>0.02400614273786691</v>
+        <v>0.02423578224405038</v>
       </c>
       <c r="T8">
-        <v>0.02400614273786691</v>
+        <v>0.02467456861587051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.8585905719084</v>
+        <v>6.261621000000001</v>
       </c>
       <c r="H9">
-        <v>5.8585905719084</v>
+        <v>18.784863</v>
       </c>
       <c r="I9">
-        <v>0.2063146586227537</v>
+        <v>0.2114115140389608</v>
       </c>
       <c r="J9">
-        <v>0.2063146586227537</v>
+        <v>0.2755854414184041</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N9">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O9">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P9">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q9">
-        <v>9.208939042229312</v>
+        <v>10.515914499097</v>
       </c>
       <c r="R9">
-        <v>9.208939042229312</v>
+        <v>94.64323049187301</v>
       </c>
       <c r="S9">
-        <v>0.04130800919787873</v>
+        <v>0.04250985668128113</v>
       </c>
       <c r="T9">
-        <v>0.04130800919787873</v>
+        <v>0.0649192399674198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.8585905719084</v>
+        <v>6.261621000000001</v>
       </c>
       <c r="H10">
-        <v>5.8585905719084</v>
+        <v>18.784863</v>
       </c>
       <c r="I10">
-        <v>0.2063146586227537</v>
+        <v>0.2114115140389608</v>
       </c>
       <c r="J10">
-        <v>0.2063146586227537</v>
+        <v>0.2755854414184041</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N10">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O10">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P10">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q10">
-        <v>7.286207767659725</v>
+        <v>7.890268622100002</v>
       </c>
       <c r="R10">
-        <v>7.286207767659725</v>
+        <v>71.01241759890002</v>
       </c>
       <c r="S10">
-        <v>0.0326833238990886</v>
+        <v>0.03189586491323056</v>
       </c>
       <c r="T10">
-        <v>0.0326833238990886</v>
+        <v>0.04871000445367808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.8585905719084</v>
+        <v>6.261621000000001</v>
       </c>
       <c r="H11">
-        <v>5.8585905719084</v>
+        <v>18.784863</v>
       </c>
       <c r="I11">
-        <v>0.2063146586227537</v>
+        <v>0.2114115140389608</v>
       </c>
       <c r="J11">
-        <v>0.2063146586227537</v>
+        <v>0.2755854414184041</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N11">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O11">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P11">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q11">
-        <v>4.787757423069073</v>
+        <v>5.726045771007001</v>
       </c>
       <c r="R11">
-        <v>4.787757423069073</v>
+        <v>51.53441193906301</v>
       </c>
       <c r="S11">
-        <v>0.0214761686186026</v>
+        <v>0.02314714379779955</v>
       </c>
       <c r="T11">
-        <v>0.0214761686186026</v>
+        <v>0.03534933072195986</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.8585905719084</v>
+        <v>6.261621000000001</v>
       </c>
       <c r="H12">
-        <v>5.8585905719084</v>
+        <v>18.784863</v>
       </c>
       <c r="I12">
-        <v>0.2063146586227537</v>
+        <v>0.2114115140389608</v>
       </c>
       <c r="J12">
-        <v>0.2063146586227537</v>
+        <v>0.2755854414184041</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N12">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O12">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P12">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q12">
-        <v>4.854464132990385</v>
+        <v>5.193298707499001</v>
       </c>
       <c r="R12">
-        <v>4.854464132990385</v>
+        <v>46.73968836749101</v>
       </c>
       <c r="S12">
-        <v>0.021775391077819</v>
+        <v>0.02099355065865382</v>
       </c>
       <c r="T12">
-        <v>0.021775391077819</v>
+        <v>0.03206045513621942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.8585905719084</v>
+        <v>6.261621000000001</v>
       </c>
       <c r="H13">
-        <v>5.8585905719084</v>
+        <v>18.784863</v>
       </c>
       <c r="I13">
-        <v>0.2063146586227537</v>
+        <v>0.2114115140389608</v>
       </c>
       <c r="J13">
-        <v>0.2063146586227537</v>
+        <v>0.2755854414184041</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N13">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O13">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P13">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q13">
-        <v>14.50530704406452</v>
+        <v>16.977239464857</v>
       </c>
       <c r="R13">
-        <v>14.50530704406452</v>
+        <v>101.863436789142</v>
       </c>
       <c r="S13">
-        <v>0.0650656230914979</v>
+        <v>0.06862931574394536</v>
       </c>
       <c r="T13">
-        <v>0.0650656230914979</v>
+        <v>0.06987184252325639</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.93513656201013</v>
+        <v>0.042102</v>
       </c>
       <c r="H14">
-        <v>1.93513656201013</v>
+        <v>0.126306</v>
       </c>
       <c r="I14">
-        <v>0.06814728462062113</v>
+        <v>0.001421492543874554</v>
       </c>
       <c r="J14">
-        <v>0.06814728462062113</v>
+        <v>0.001852986352032109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N14">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O14">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P14">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q14">
-        <v>1.767731037684122</v>
+        <v>0.040311633501</v>
       </c>
       <c r="R14">
-        <v>1.767731037684122</v>
+        <v>0.241869801006</v>
       </c>
       <c r="S14">
-        <v>0.007929409634397396</v>
+        <v>0.0001629569889392873</v>
       </c>
       <c r="T14">
-        <v>0.007929409634397396</v>
+        <v>0.0001659073086450585</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.93513656201013</v>
+        <v>0.042102</v>
       </c>
       <c r="H15">
-        <v>1.93513656201013</v>
+        <v>0.126306</v>
       </c>
       <c r="I15">
-        <v>0.06814728462062113</v>
+        <v>0.001421492543874554</v>
       </c>
       <c r="J15">
-        <v>0.06814728462062113</v>
+        <v>0.001852986352032109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N15">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O15">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P15">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q15">
-        <v>3.041781878970859</v>
+        <v>0.070707095214</v>
       </c>
       <c r="R15">
-        <v>3.041781878970859</v>
+        <v>0.6363638569259999</v>
       </c>
       <c r="S15">
-        <v>0.01364434635285104</v>
+        <v>0.0002858285396058461</v>
       </c>
       <c r="T15">
-        <v>0.01364434635285104</v>
+        <v>0.0004365051543535305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.93513656201013</v>
+        <v>0.042102</v>
       </c>
       <c r="H16">
-        <v>1.93513656201013</v>
+        <v>0.126306</v>
       </c>
       <c r="I16">
-        <v>0.06814728462062113</v>
+        <v>0.001421492543874554</v>
       </c>
       <c r="J16">
-        <v>0.06814728462062113</v>
+        <v>0.001852986352032109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N16">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O16">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P16">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q16">
-        <v>2.406689267075309</v>
+        <v>0.05305273020000001</v>
       </c>
       <c r="R16">
-        <v>2.406689267075309</v>
+        <v>0.4774745718000001</v>
       </c>
       <c r="S16">
-        <v>0.01079554788286624</v>
+        <v>0.0002144619906852927</v>
       </c>
       <c r="T16">
-        <v>0.01079554788286624</v>
+        <v>0.0003275172048114624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.93513656201013</v>
+        <v>0.042102</v>
       </c>
       <c r="H17">
-        <v>1.93513656201013</v>
+        <v>0.126306</v>
       </c>
       <c r="I17">
-        <v>0.06814728462062113</v>
+        <v>0.001421492543874554</v>
       </c>
       <c r="J17">
-        <v>0.06814728462062113</v>
+        <v>0.001852986352032109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N17">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O17">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P17">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q17">
-        <v>1.581432313062006</v>
+        <v>0.038500889634</v>
       </c>
       <c r="R17">
-        <v>1.581432313062006</v>
+        <v>0.346508006706</v>
       </c>
       <c r="S17">
-        <v>0.007093740140338016</v>
+        <v>0.0001556371821569776</v>
       </c>
       <c r="T17">
-        <v>0.007093740140338016</v>
+        <v>0.0002376824662584903</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.93513656201013</v>
+        <v>0.042102</v>
       </c>
       <c r="H18">
-        <v>1.93513656201013</v>
+        <v>0.126306</v>
       </c>
       <c r="I18">
-        <v>0.06814728462062113</v>
+        <v>0.001421492543874554</v>
       </c>
       <c r="J18">
-        <v>0.06814728462062113</v>
+        <v>0.001852986352032109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N18">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O18">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P18">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q18">
-        <v>1.603466041433314</v>
+        <v>0.034918795338</v>
       </c>
       <c r="R18">
-        <v>1.603466041433314</v>
+        <v>0.314269158042</v>
       </c>
       <c r="S18">
-        <v>0.007192575570787908</v>
+        <v>0.0001411568138395222</v>
       </c>
       <c r="T18">
-        <v>0.007192575570787908</v>
+        <v>0.0002155686653895389</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.93513656201013</v>
+        <v>0.042102</v>
       </c>
       <c r="H19">
-        <v>1.93513656201013</v>
+        <v>0.126306</v>
       </c>
       <c r="I19">
-        <v>0.06814728462062113</v>
+        <v>0.001421492543874554</v>
       </c>
       <c r="J19">
-        <v>0.06814728462062113</v>
+        <v>0.001852986352032109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.47590386561857</v>
+        <v>2.711317</v>
       </c>
       <c r="N19">
-        <v>2.47590386561857</v>
+        <v>5.422634</v>
       </c>
       <c r="O19">
-        <v>0.3153708201144853</v>
+        <v>0.3246243046691286</v>
       </c>
       <c r="P19">
-        <v>0.3153708201144853</v>
+        <v>0.2535396723558207</v>
       </c>
       <c r="Q19">
-        <v>4.79121209438071</v>
+        <v>0.114151868334</v>
       </c>
       <c r="R19">
-        <v>4.79121209438071</v>
+        <v>0.684911210004</v>
       </c>
       <c r="S19">
-        <v>0.02149166503938053</v>
+        <v>0.0004614510286476277</v>
       </c>
       <c r="T19">
-        <v>0.02149166503938053</v>
+        <v>0.0004698055525740284</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>19.2482110986333</v>
+        <v>0.06337966666666667</v>
       </c>
       <c r="H20">
-        <v>19.2482110986333</v>
+        <v>0.190139</v>
       </c>
       <c r="I20">
-        <v>0.6778401824074963</v>
+        <v>0.002139891777110856</v>
       </c>
       <c r="J20">
-        <v>0.6778401824074963</v>
+        <v>0.002789455544384536</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.913491622445439</v>
+        <v>0.9574755</v>
       </c>
       <c r="N20">
-        <v>0.913491622445439</v>
+        <v>1.914951</v>
       </c>
       <c r="O20">
-        <v>0.1163569418582231</v>
+        <v>0.1146379484306801</v>
       </c>
       <c r="P20">
-        <v>0.1163569418582231</v>
+        <v>0.08953509477450465</v>
       </c>
       <c r="Q20">
-        <v>17.58307958566284</v>
+        <v>0.0606844780315</v>
       </c>
       <c r="R20">
-        <v>17.58307958566284</v>
+        <v>0.364106868189</v>
       </c>
       <c r="S20">
-        <v>0.07887141069355641</v>
+        <v>0.0002453128031916706</v>
       </c>
       <c r="T20">
-        <v>0.07887141069355641</v>
+        <v>0.0002497541665357369</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>19.2482110986333</v>
+        <v>0.06337966666666667</v>
       </c>
       <c r="H21">
-        <v>19.2482110986333</v>
+        <v>0.190139</v>
       </c>
       <c r="I21">
-        <v>0.6778401824074963</v>
+        <v>0.002139891777110856</v>
       </c>
       <c r="J21">
-        <v>0.6778401824074963</v>
+        <v>0.002789455544384536</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.57186936502879</v>
+        <v>1.679423666666667</v>
       </c>
       <c r="N21">
-        <v>1.57186936502879</v>
+        <v>5.038271</v>
       </c>
       <c r="O21">
-        <v>0.2002184889509495</v>
+        <v>0.2010763551574917</v>
       </c>
       <c r="P21">
-        <v>0.2002184889509495</v>
+        <v>0.2355684670180272</v>
       </c>
       <c r="Q21">
-        <v>30.25567335754883</v>
+        <v>0.1064413121854444</v>
       </c>
       <c r="R21">
-        <v>30.25567335754883</v>
+        <v>0.957971809669</v>
       </c>
       <c r="S21">
-        <v>0.1357161370718649</v>
+        <v>0.0004302816389729385</v>
       </c>
       <c r="T21">
-        <v>0.1357161370718649</v>
+        <v>0.0006571077664056018</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>19.2482110986333</v>
+        <v>0.06337966666666667</v>
       </c>
       <c r="H22">
-        <v>19.2482110986333</v>
+        <v>0.190139</v>
       </c>
       <c r="I22">
-        <v>0.6778401824074963</v>
+        <v>0.002139891777110856</v>
       </c>
       <c r="J22">
-        <v>0.6778401824074963</v>
+        <v>0.002789455544384536</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.24367929081726</v>
+        <v>1.2601</v>
       </c>
       <c r="N22">
-        <v>1.24367929081726</v>
+        <v>3.7803</v>
       </c>
       <c r="O22">
-        <v>0.1584149382175022</v>
+        <v>0.1508709923308742</v>
       </c>
       <c r="P22">
-        <v>0.1584149382175022</v>
+        <v>0.1767510076111921</v>
       </c>
       <c r="Q22">
-        <v>23.93860152864917</v>
+        <v>0.07986471796666668</v>
       </c>
       <c r="R22">
-        <v>23.93860152864917</v>
+        <v>0.7187824617</v>
       </c>
       <c r="S22">
-        <v>0.107380010617424</v>
+        <v>0.0003228475958933928</v>
       </c>
       <c r="T22">
-        <v>0.107380010617424</v>
+        <v>0.0004930390781565932</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>19.2482110986333</v>
+        <v>0.06337966666666667</v>
       </c>
       <c r="H23">
-        <v>19.2482110986333</v>
+        <v>0.190139</v>
       </c>
       <c r="I23">
-        <v>0.6778401824074963</v>
+        <v>0.002139891777110856</v>
       </c>
       <c r="J23">
-        <v>0.6778401824074963</v>
+        <v>0.002789455544384536</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.8172200061267449</v>
+        <v>0.914467</v>
       </c>
       <c r="N23">
-        <v>0.8172200061267449</v>
+        <v>2.743401</v>
       </c>
       <c r="O23">
-        <v>0.104094244984656</v>
+        <v>0.1094885673707147</v>
       </c>
       <c r="P23">
-        <v>0.104094244984656</v>
+        <v>0.1282699497477851</v>
       </c>
       <c r="Q23">
-        <v>15.73002319195398</v>
+        <v>0.05795861363766667</v>
       </c>
       <c r="R23">
-        <v>15.73002319195398</v>
+        <v>0.521627522739</v>
       </c>
       <c r="S23">
-        <v>0.07055926200796983</v>
+        <v>0.0002342936850042403</v>
       </c>
       <c r="T23">
-        <v>0.07055926200796983</v>
+        <v>0.0003578033225018849</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>19.2482110986333</v>
+        <v>0.06337966666666667</v>
       </c>
       <c r="H24">
-        <v>19.2482110986333</v>
+        <v>0.190139</v>
       </c>
       <c r="I24">
-        <v>0.6778401824074963</v>
+        <v>0.002139891777110856</v>
       </c>
       <c r="J24">
-        <v>0.6778401824074963</v>
+        <v>0.002789455544384536</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8286061422805781</v>
+        <v>0.8293856666666667</v>
       </c>
       <c r="N24">
-        <v>0.8286061422805781</v>
+        <v>2.488157</v>
       </c>
       <c r="O24">
-        <v>0.1055445658741839</v>
+        <v>0.09930183204111076</v>
       </c>
       <c r="P24">
-        <v>0.1055445658741839</v>
+        <v>0.1163358084926701</v>
       </c>
       <c r="Q24">
-        <v>15.94918594424074</v>
+        <v>0.05256618709144445</v>
       </c>
       <c r="R24">
-        <v>15.94918594424074</v>
+        <v>0.473095683823</v>
       </c>
       <c r="S24">
-        <v>0.07154234778427684</v>
+        <v>0.0002124951738368162</v>
       </c>
       <c r="T24">
-        <v>0.07154234778427684</v>
+        <v>0.0003245135660103363</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06337966666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.190139</v>
+      </c>
+      <c r="I25">
+        <v>0.002139891777110856</v>
+      </c>
+      <c r="J25">
+        <v>0.002789455544384536</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.711317</v>
+      </c>
+      <c r="N25">
+        <v>5.422634</v>
+      </c>
+      <c r="O25">
+        <v>0.3246243046691286</v>
+      </c>
+      <c r="P25">
+        <v>0.2535396723558207</v>
+      </c>
+      <c r="Q25">
+        <v>0.1718423676876667</v>
+      </c>
+      <c r="R25">
+        <v>1.031054206126</v>
+      </c>
+      <c r="S25">
+        <v>0.0006946608802117974</v>
+      </c>
+      <c r="T25">
+        <v>0.0007072376447743827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.560049333333333</v>
+      </c>
+      <c r="H26">
+        <v>7.680147999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.0864351109040985</v>
+      </c>
+      <c r="J26">
+        <v>0.1126724734025834</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9574755</v>
+      </c>
+      <c r="N26">
+        <v>1.914951</v>
+      </c>
+      <c r="O26">
+        <v>0.1146379484306801</v>
+      </c>
+      <c r="P26">
+        <v>0.08953509477450465</v>
+      </c>
+      <c r="Q26">
+        <v>2.451184515458</v>
+      </c>
+      <c r="R26">
+        <v>14.707107092748</v>
+      </c>
+      <c r="S26">
+        <v>0.009908743786424156</v>
+      </c>
+      <c r="T26">
+        <v>0.01008814058457816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.560049333333333</v>
+      </c>
+      <c r="H27">
+        <v>7.680147999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.0864351109040985</v>
+      </c>
+      <c r="J27">
+        <v>0.1126724734025834</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.679423666666667</v>
+      </c>
+      <c r="N27">
+        <v>5.038271</v>
+      </c>
+      <c r="O27">
+        <v>0.2010763551574917</v>
+      </c>
+      <c r="P27">
+        <v>0.2355684670180272</v>
+      </c>
+      <c r="Q27">
+        <v>4.299407438234222</v>
+      </c>
+      <c r="R27">
+        <v>38.69466694410799</v>
+      </c>
+      <c r="S27">
+        <v>0.0173800570582297</v>
+      </c>
+      <c r="T27">
+        <v>0.02654208183457601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.560049333333333</v>
+      </c>
+      <c r="H28">
+        <v>7.680147999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.0864351109040985</v>
+      </c>
+      <c r="J28">
+        <v>0.1126724734025834</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.2601</v>
+      </c>
+      <c r="N28">
+        <v>3.7803</v>
+      </c>
+      <c r="O28">
+        <v>0.1508709923308742</v>
+      </c>
+      <c r="P28">
+        <v>0.1767510076111921</v>
+      </c>
+      <c r="Q28">
+        <v>3.225918164933334</v>
+      </c>
+      <c r="R28">
+        <v>29.0332634844</v>
+      </c>
+      <c r="S28">
+        <v>0.01304055095433051</v>
+      </c>
+      <c r="T28">
+        <v>0.01991497320395186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.560049333333333</v>
+      </c>
+      <c r="H29">
+        <v>7.680147999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.0864351109040985</v>
+      </c>
+      <c r="J29">
+        <v>0.1126724734025834</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.914467</v>
+      </c>
+      <c r="N29">
+        <v>2.743401</v>
+      </c>
+      <c r="O29">
+        <v>0.1094885673707147</v>
+      </c>
+      <c r="P29">
+        <v>0.1282699497477851</v>
+      </c>
+      <c r="Q29">
+        <v>2.341080633705333</v>
+      </c>
+      <c r="R29">
+        <v>21.069725703348</v>
+      </c>
+      <c r="S29">
+        <v>0.009463656463418582</v>
+      </c>
+      <c r="T29">
+        <v>0.01445249250130802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.560049333333333</v>
+      </c>
+      <c r="H30">
+        <v>7.680147999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.0864351109040985</v>
+      </c>
+      <c r="J30">
+        <v>0.1126724734025834</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.8293856666666667</v>
+      </c>
+      <c r="N30">
+        <v>2.488157</v>
+      </c>
+      <c r="O30">
+        <v>0.09930183204111076</v>
+      </c>
+      <c r="P30">
+        <v>0.1163358084926701</v>
+      </c>
+      <c r="Q30">
+        <v>2.123268223026222</v>
+      </c>
+      <c r="R30">
+        <v>19.109414007236</v>
+      </c>
+      <c r="S30">
+        <v>0.008583164865453571</v>
+      </c>
+      <c r="T30">
+        <v>0.01310784328815841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.560049333333333</v>
+      </c>
+      <c r="H31">
+        <v>7.680147999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.0864351109040985</v>
+      </c>
+      <c r="J31">
+        <v>0.1126724734025834</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.711317</v>
+      </c>
+      <c r="N31">
+        <v>5.422634</v>
+      </c>
+      <c r="O31">
+        <v>0.3246243046691286</v>
+      </c>
+      <c r="P31">
+        <v>0.2535396723558207</v>
+      </c>
+      <c r="Q31">
+        <v>6.941105278305334</v>
+      </c>
+      <c r="R31">
+        <v>41.646631669832</v>
+      </c>
+      <c r="S31">
+        <v>0.02805893777624199</v>
+      </c>
+      <c r="T31">
+        <v>0.02856694199001092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>19.3057365</v>
+      </c>
+      <c r="H32">
+        <v>38.611473</v>
+      </c>
+      <c r="I32">
+        <v>0.651820827722123</v>
+      </c>
+      <c r="J32">
+        <v>0.5664539491461711</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.9574755</v>
+      </c>
+      <c r="N32">
+        <v>1.914951</v>
+      </c>
+      <c r="O32">
+        <v>0.1146379484306801</v>
+      </c>
+      <c r="P32">
+        <v>0.08953509477450465</v>
+      </c>
+      <c r="Q32">
+        <v>18.48476970820575</v>
+      </c>
+      <c r="R32">
+        <v>73.93907883282301</v>
+      </c>
+      <c r="S32">
+        <v>0.07472340243445193</v>
+      </c>
+      <c r="T32">
+        <v>0.05071750802219487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>19.3057365</v>
+      </c>
+      <c r="H33">
+        <v>38.611473</v>
+      </c>
+      <c r="I33">
+        <v>0.651820827722123</v>
+      </c>
+      <c r="J33">
+        <v>0.5664539491461711</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.679423666666667</v>
+      </c>
+      <c r="N33">
+        <v>5.038271</v>
+      </c>
+      <c r="O33">
+        <v>0.2010763551574917</v>
+      </c>
+      <c r="P33">
+        <v>0.2355684670180272</v>
+      </c>
+      <c r="Q33">
+        <v>32.4225107805305</v>
+      </c>
+      <c r="R33">
+        <v>194.535064683183</v>
+      </c>
+      <c r="S33">
+        <v>0.1310657562541038</v>
+      </c>
+      <c r="T33">
+        <v>0.1334386884366711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>19.3057365</v>
+      </c>
+      <c r="H34">
+        <v>38.611473</v>
+      </c>
+      <c r="I34">
+        <v>0.651820827722123</v>
+      </c>
+      <c r="J34">
+        <v>0.5664539491461711</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.2601</v>
+      </c>
+      <c r="N34">
+        <v>3.7803</v>
+      </c>
+      <c r="O34">
+        <v>0.1508709923308742</v>
+      </c>
+      <c r="P34">
+        <v>0.1767510076111921</v>
+      </c>
+      <c r="Q34">
+        <v>24.32715856365001</v>
+      </c>
+      <c r="R34">
+        <v>145.9629513819</v>
+      </c>
+      <c r="S34">
+        <v>0.09834085510036851</v>
+      </c>
+      <c r="T34">
+        <v>0.1001213062769247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>19.2482110986333</v>
-      </c>
-      <c r="H25">
-        <v>19.2482110986333</v>
-      </c>
-      <c r="I25">
-        <v>0.6778401824074963</v>
-      </c>
-      <c r="J25">
-        <v>0.6778401824074963</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.47590386561857</v>
-      </c>
-      <c r="N25">
-        <v>2.47590386561857</v>
-      </c>
-      <c r="O25">
-        <v>0.3153708201144853</v>
-      </c>
-      <c r="P25">
-        <v>0.3153708201144853</v>
-      </c>
-      <c r="Q25">
-        <v>47.65672026534845</v>
-      </c>
-      <c r="R25">
-        <v>47.65672026534845</v>
-      </c>
-      <c r="S25">
-        <v>0.2137710142324044</v>
-      </c>
-      <c r="T25">
-        <v>0.2137710142324044</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>19.3057365</v>
+      </c>
+      <c r="H35">
+        <v>38.611473</v>
+      </c>
+      <c r="I35">
+        <v>0.651820827722123</v>
+      </c>
+      <c r="J35">
+        <v>0.5664539491461711</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.914467</v>
+      </c>
+      <c r="N35">
+        <v>2.743401</v>
+      </c>
+      <c r="O35">
+        <v>0.1094885673707147</v>
+      </c>
+      <c r="P35">
+        <v>0.1282699497477851</v>
+      </c>
+      <c r="Q35">
+        <v>17.6544589399455</v>
+      </c>
+      <c r="R35">
+        <v>105.926753639673</v>
+      </c>
+      <c r="S35">
+        <v>0.07136692860968866</v>
+      </c>
+      <c r="T35">
+        <v>0.07265901959141377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>19.3057365</v>
+      </c>
+      <c r="H36">
+        <v>38.611473</v>
+      </c>
+      <c r="I36">
+        <v>0.651820827722123</v>
+      </c>
+      <c r="J36">
+        <v>0.5664539491461711</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.8293856666666667</v>
+      </c>
+      <c r="N36">
+        <v>2.488157</v>
+      </c>
+      <c r="O36">
+        <v>0.09930183204111076</v>
+      </c>
+      <c r="P36">
+        <v>0.1163358084926701</v>
+      </c>
+      <c r="Q36">
+        <v>16.0119011375435</v>
+      </c>
+      <c r="R36">
+        <v>96.07140682526102</v>
+      </c>
+      <c r="S36">
+        <v>0.06472700235536005</v>
+      </c>
+      <c r="T36">
+        <v>0.06589887814778567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>19.3057365</v>
+      </c>
+      <c r="H37">
+        <v>38.611473</v>
+      </c>
+      <c r="I37">
+        <v>0.651820827722123</v>
+      </c>
+      <c r="J37">
+        <v>0.5664539491461711</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.711317</v>
+      </c>
+      <c r="N37">
+        <v>5.422634</v>
+      </c>
+      <c r="O37">
+        <v>0.3246243046691286</v>
+      </c>
+      <c r="P37">
+        <v>0.2535396723558207</v>
+      </c>
+      <c r="Q37">
+        <v>52.34397156997051</v>
+      </c>
+      <c r="R37">
+        <v>209.375886279882</v>
+      </c>
+      <c r="S37">
+        <v>0.21159688296815</v>
+      </c>
+      <c r="T37">
+        <v>0.1436185486711809</v>
       </c>
     </row>
   </sheetData>
